--- a/文書管理フォルダ/外部設計用フォルダ/DBフォルダー/DB定義書.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/DBフォルダー/DB定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\DBフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37709311-B796-4191-BEDF-0E19AF85D5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671277B4-85BF-4D0A-BA93-F7C00868A516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -211,6 +211,88 @@
   <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見本</t>
+    <rPh sb="0" eb="2">
+      <t>ミホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>物理名</t>
+  </si>
+  <si>
+    <t>データ型</t>
+  </si>
+  <si>
+    <t>サイズ</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Not null</t>
+  </si>
+  <si>
+    <t>デフォルト値</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>ユーザID</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>ユーザ氏</t>
+  </si>
+  <si>
+    <t>user_l_name</t>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+  </si>
+  <si>
+    <t>user_f_name</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>user_pw</t>
+  </si>
+  <si>
+    <t>ユーザタイプ</t>
+  </si>
+  <si>
+    <t>user_type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>user_mail</t>
   </si>
 </sst>
 </file>
@@ -667,7 +749,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1036,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1509,8 +1591,157 @@
         <v>20</v>
       </c>
     </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文書管理フォルダ/外部設計用フォルダ/DBフォルダー/DB定義書.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/DBフォルダー/DB定義書.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\DBフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\c1 資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671277B4-85BF-4D0A-BA93-F7C00868A516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7FC758-E736-419D-B476-AB2FF5B1A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="m_user" sheetId="2" r:id="rId2"/>
+    <sheet name="user" sheetId="2" r:id="rId2"/>
+    <sheet name="board" sheetId="3" r:id="rId3"/>
+    <sheet name="reply" sheetId="4" r:id="rId4"/>
+    <sheet name="manager" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -179,14 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>usr</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>type1=生徒　type2=講師　type3=事務局</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>reply</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -209,90 +204,191 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>user_mail</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザータイプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ユーザー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見本</t>
-    <rPh sb="0" eb="2">
-      <t>ミホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>論理名</t>
-  </si>
-  <si>
-    <t>物理名</t>
-  </si>
-  <si>
-    <t>データ型</t>
-  </si>
-  <si>
-    <t>サイズ</t>
-  </si>
-  <si>
-    <t>主キー</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>Not null</t>
-  </si>
-  <si>
-    <t>デフォルト値</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>ユーザID</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>ユーザ氏</t>
-  </si>
-  <si>
-    <t>user_l_name</t>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-  </si>
-  <si>
-    <t>user_f_name</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>user_pw</t>
-  </si>
-  <si>
-    <t>ユーザタイプ</t>
-  </si>
-  <si>
-    <t>user_type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>user_mail</t>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドクロカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実名化カウント</t>
+    <rPh sb="0" eb="3">
+      <t>ジツメイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_nameCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー氏名</t>
+    <rPh sb="4" eb="6">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインを行う際に参照（必須）</t>
+  </si>
+  <si>
+    <t>ログインを行う際に参照（必須）</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインを行う際に参照（必須）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上限値３　実名化カウントを増やす際に参照される項目</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジツメイカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドクロカウントが３になった際に１増やす</t>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実名化を行う際に使用</t>
+    <rPh sb="0" eb="3">
+      <t>ジツメイカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名無し＋匿名IDとして掲示板に出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0=生徒　1=講師　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネージャマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manager_pw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manager_mail</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -749,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -821,25 +917,23 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -849,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -861,8 +955,12 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
@@ -1118,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1230,6 +1328,538 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>user_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_pw varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_type int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" ref="L14:L27" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>user_mail varchar (100),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>user_count int (3),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" t="e">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B37BB6F-658B-4CC5-B8F6-0BDEDC329E03}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1591,153 +2221,892 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD83734F-99FA-48E0-9F2B-6F090961ABAB}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table  (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491032D2-68DF-4CD1-8C50-4064B752838E}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33">
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-      <c r="H38" t="s">
-        <v>43</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/文書管理フォルダ/外部設計用フォルダ/DBフォルダー/DB定義書.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/DBフォルダー/DB定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\c1 資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\DBフォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7FC758-E736-419D-B476-AB2FF5B1A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0986DAF-F196-4E67-9E6B-FF3DAA2AD31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -388,6 +388,54 @@
   </si>
   <si>
     <t>manager_mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出し</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board_topic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board_main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアクション1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアクション2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアクション3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board_reaction1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board_reaction2</t>
+  </si>
+  <si>
+    <t>board_reaction3</t>
+  </si>
+  <si>
+    <t>board_update</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1748,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B37BB6F-658B-4CC5-B8F6-0BDEDC329E03}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1860,8 +1908,12 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1871,15 +1923,19 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>board_topic  ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1889,15 +1945,19 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>board_main  ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1906,16 +1966,20 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>board_reaction1  ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1923,17 +1987,17 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1941,17 +2005,17 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1960,15 +2024,17 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">board_update  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1978,7 +2044,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -1996,7 +2062,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2217,13 +2283,50 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L32" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2714,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491032D2-68DF-4CD1-8C50-4064B752838E}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/文書管理フォルダ/外部設計用フォルダ/DBフォルダー/DB定義書.xlsx
+++ b/文書管理フォルダ/外部設計用フォルダ/DBフォルダー/DB定義書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-1\文書管理フォルダ\外部設計用フォルダ\DBフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\c1 資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0986DAF-F196-4E67-9E6B-FF3DAA2AD31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB71AB-0EB8-4894-964F-A6A6E7D27F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="board" sheetId="3" r:id="rId3"/>
     <sheet name="reply" sheetId="4" r:id="rId4"/>
     <sheet name="manager" sheetId="7" r:id="rId5"/>
+    <sheet name="search" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="105">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -413,29 +414,231 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リアクション1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リアクション2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リアクション3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>board_reaction1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>board_reaction2</t>
-  </si>
-  <si>
-    <t>board_reaction3</t>
-  </si>
-  <si>
     <t>board_update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時時間を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブルから参照</t>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>びっくり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>涙（ぴえん）</t>
+    <rPh sb="0" eb="1">
+      <t>ナミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board_smile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board_shock</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>board_tear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加算していく</t>
+    <rPh sb="0" eb="2">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信内容</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reply_main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reply_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信日時</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reply_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>manager_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者ID</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーテーブルから参照</t>
+  </si>
+  <si>
+    <t>ボードテーブルから参照</t>
+  </si>
+  <si>
+    <t>検閲</t>
+    <rPh sb="0" eb="2">
+      <t>ケンエツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーチID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>search_word</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検閲するようの単語一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ケンエツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三田祐汰</t>
+  </si>
+  <si>
+    <t>三田祐汰</t>
+    <rPh sb="0" eb="2">
+      <t>ミタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三田祐汰</t>
+    <rPh sb="0" eb="4">
+      <t>ミタユウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボードマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リプレイマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リプレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maneger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マネージャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーチ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -893,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -919,7 +1122,9 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -929,7 +1134,9 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>44355</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D4" s="1" t="s">
@@ -970,7 +1177,9 @@
       <c r="D8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -983,7 +1192,9 @@
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -996,7 +1207,9 @@
       <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1009,16 +1222,24 @@
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1266,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1296,7 +1517,9 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -1308,7 +1531,9 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>44355</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -1316,7 +1541,9 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1555,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1369,7 +1598,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table user (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -1796,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B37BB6F-658B-4CC5-B8F6-0BDEDC329E03}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1817,7 +2046,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1828,7 +2057,9 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -1840,7 +2071,9 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>44355</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -1848,7 +2081,9 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +2095,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1901,73 +2138,90 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table board (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>board_topic  ,</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>40</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>board_main  ,</v>
+        <v>board_topic varchar (40),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3">
+        <v>500</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>board_reaction1  ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>board_main text (500),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -1975,99 +2229,131 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>board_smile int ,</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">board_update  </v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>board_update datetime ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">user_id int </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>9</v>
       </c>
       <c r="B18" s="3"/>
@@ -2080,7 +2366,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L18:L32" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2103,7 +2389,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
       <c r="B20" s="3"/>
@@ -2139,7 +2425,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
       <c r="B22" s="3"/>
@@ -2175,7 +2461,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>15</v>
       </c>
       <c r="B24" s="3"/>
@@ -2211,7 +2497,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>17</v>
       </c>
       <c r="B26" s="3"/>
@@ -2247,7 +2533,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>19</v>
       </c>
       <c r="B28" s="3"/>
@@ -2283,7 +2569,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>21</v>
       </c>
       <c r="B30" s="3"/>
@@ -2319,7 +2605,25 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L32" t="s">
+      <c r="A32" s="1">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2332,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD83734F-99FA-48E0-9F2B-6F090961ABAB}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2353,7 +2657,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -2364,7 +2668,9 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -2376,7 +2682,9 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>44355</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -2384,7 +2692,9 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2396,7 +2706,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2437,7 +2749,7 @@
       </c>
       <c r="L9" s="6" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table reply (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -2445,46 +2757,72 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>reply_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3">
+        <v>400</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>reply_main text (400),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2493,43 +2831,59 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>reply_date datetime ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>user_id int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">board_id int </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -2546,7 +2900,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2767,58 +3121,23 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
+      <c r="L28" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491032D2-68DF-4CD1-8C50-4064B752838E}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2847,7 +3166,9 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
@@ -2859,7 +3180,9 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>44355</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -2867,7 +3190,9 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2879,7 +3204,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2920,50 +3247,48 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>30</v>
@@ -2974,7 +3299,444 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CC9946-FA25-4232-BD8B-20C5F6C26F91}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>44355</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
       <c r="B12" s="3"/>
@@ -3002,7 +3764,7 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>5</v>
       </c>
       <c r="B14" s="3"/>
@@ -3030,7 +3792,7 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>7</v>
       </c>
       <c r="B16" s="3"/>
@@ -3058,7 +3820,7 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>9</v>
       </c>
       <c r="B18" s="3"/>
@@ -3086,7 +3848,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>11</v>
       </c>
       <c r="B20" s="3"/>
@@ -3114,7 +3876,7 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>13</v>
       </c>
       <c r="B22" s="3"/>
@@ -3142,7 +3904,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>15</v>
       </c>
       <c r="B24" s="3"/>
@@ -3170,7 +3932,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>17</v>
       </c>
       <c r="B26" s="3"/>
@@ -3198,7 +3960,7 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>19</v>
       </c>
       <c r="B28" s="3"/>
@@ -3211,9 +3973,22 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>